--- a/DATA_goal/Junction_Flooding_484.xlsx
+++ b/DATA_goal/Junction_Flooding_484.xlsx
@@ -446,34 +446,34 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -759,103 +759,103 @@
         <v>44815.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.16</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.19</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.67</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.62</v>
+        <v>16.17</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.34</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.5</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.46</v>
       </c>
-      <c r="K3" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>9.5</v>
+        <v>95</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.91</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.6</v>
+        <v>5.98</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.21</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.65</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.41</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.9</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.72</v>
+        <v>17.17</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.84</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44815.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.33</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.7</v>
+        <v>7.02</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.09</v>
+        <v>20.85</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.61</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.28</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.73</v>
+        <v>27.35</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.89</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.91</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.85</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.95</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.33</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.66</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.1</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.68</v>
+        <v>106.8</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.06</v>
+        <v>20.56</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.75</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.4</v>
+        <v>14.03</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.22</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.7</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.09</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.46</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.56</v>
+        <v>25.6</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44815.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.35</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.88</v>
+        <v>18.79</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.58</v>
+        <v>15.77</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.61</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.65</v>
+        <v>26.55</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.26</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.7</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.07</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.92</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.56</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.62</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>95.45999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.86</v>
+        <v>18.61</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.1</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.69</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.55</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.17</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.92</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.5</v>
+        <v>5.01</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.34</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.47</v>
+        <v>24.7</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_484.xlsx
+++ b/DATA_goal/Junction_Flooding_484.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44815.54861111111</v>
+        <v>45165.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>0.596</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.131</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>0.703</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>0.594</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.673</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>2.927</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>1.311</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>0.574</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>0.838</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>0.781</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.626</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>2.165</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>0.638</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>1.735</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>2.278</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>0.419</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>0.467</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>0.214</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>0.476</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>2.624</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>0.591</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44815.55555555555</v>
+        <v>45165.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.16</v>
+        <v>10.406</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.19</v>
+        <v>7.831</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.391</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.67</v>
+        <v>22.275</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.17</v>
+        <v>18.6</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.34</v>
+        <v>7.709</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>18.5</v>
+        <v>24.635</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>13.288</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.57</v>
+        <v>6.333</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.24</v>
+        <v>8.554</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.42</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.93</v>
+        <v>9.398</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.08</v>
+        <v>2.611</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.5</v>
+        <v>8.422000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>11.25</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.35</v>
+        <v>6.428</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.234</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.46</v>
+        <v>0.432</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>95</v>
+        <v>118.023</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>17.91</v>
+        <v>22.292</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.98</v>
+        <v>7.766</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.21</v>
+        <v>15.778</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.28</v>
+        <v>8.744999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.48</v>
+        <v>1.089</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.65</v>
+        <v>12.978</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.41</v>
+        <v>6.726</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.17</v>
+        <v>5.797</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.81</v>
+        <v>6.946</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.343</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>17.17</v>
+        <v>22.656</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.84</v>
+        <v>4.588</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.44</v>
+        <v>9.269</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44815.5625</v>
+        <v>45165.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.33</v>
+        <v>2.277</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.02</v>
+        <v>1.719</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20.85</v>
+        <v>4.748</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.61</v>
+        <v>4.069</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.28</v>
+        <v>1.469</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>27.35</v>
+        <v>10.66</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.34</v>
+        <v>3.191</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.2</v>
+        <v>1.819</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.89</v>
+        <v>1.941</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.91</v>
+        <v>2.093</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.85</v>
+        <v>1.984</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.95</v>
+        <v>0.602</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.33</v>
+        <v>2.009</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.66</v>
+        <v>2.44</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.1</v>
+        <v>1.232</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.095</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>106.8</v>
+        <v>21.077</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>20.56</v>
+        <v>5.189</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.75</v>
+        <v>1.857</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14.03</v>
+        <v>4.088</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.22</v>
+        <v>2.259</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.36</v>
+        <v>0.248</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.7</v>
+        <v>5.3</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.09</v>
+        <v>1.526</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.6</v>
+        <v>1.288</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.46</v>
+        <v>1.599</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.4</v>
+        <v>2.174</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.223</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>25.6</v>
+        <v>10.706</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.17</v>
+        <v>1.168</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.44</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44815.56944444445</v>
+        <v>45165.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.35</v>
+        <v>5.34</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>18.79</v>
+        <v>15.32</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.77</v>
+        <v>12.78</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.61</v>
+        <v>5.35</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>26.55</v>
+        <v>20.05</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.26</v>
+        <v>8.92</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.7</v>
+        <v>4.22</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.07</v>
+        <v>5.85</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.92</v>
+        <v>6.29</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.97</v>
+        <v>6.48</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.56</v>
+        <v>1.8</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.62</v>
+        <v>5.75</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>7.74</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.53</v>
+        <v>4.41</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.66</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>95.45999999999999</v>
+        <v>78.27</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>18.61</v>
+        <v>15.34</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.1</v>
+        <v>5.31</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.69</v>
+        <v>10.72</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.55</v>
+        <v>5.8</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.17</v>
+        <v>0.74</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.92</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.5</v>
+        <v>4.59</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.01</v>
+        <v>3.99</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.82</v>
+        <v>4.77</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.34</v>
+        <v>6.6</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>24.7</v>
+        <v>18.36</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.72</v>
+        <v>3.11</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.64</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44815.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0</v>
+        <v>6.36</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_484.xlsx
+++ b/DATA_goal/Junction_Flooding_484.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,11 +443,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
@@ -457,7 +457,7 @@
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45165.50694444445</v>
+        <v>44815.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.596</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5659999999999999</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.131</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.703</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.594</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.673</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.927</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.311</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.574</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.838</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.092</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.061</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.781</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.626</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.165</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.638</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.735</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.278</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.128</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.419</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.467</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.214</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.476</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.8090000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.624</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.591</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45165.51388888889</v>
+        <v>44815.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.406</v>
+        <v>8.162000000000001</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.831</v>
+        <v>6.193</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.391</v>
+        <v>0.017</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>22.275</v>
+        <v>18.67</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>18.6</v>
+        <v>16.171</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.709</v>
+        <v>6.336</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>24.635</v>
+        <v>18.503</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>13.288</v>
+        <v>9.962</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.333</v>
+        <v>4.573</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.554</v>
+        <v>7.238</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>8.420999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.398</v>
+        <v>7.928</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.611</v>
+        <v>3.08</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.422000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.25</v>
+        <v>9.366</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.428</v>
+        <v>5.355</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.234</v>
+        <v>0.198</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.432</v>
+        <v>0.461</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>118.023</v>
+        <v>94.996</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>22.292</v>
+        <v>17.909</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.766</v>
+        <v>5.982</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.778</v>
+        <v>12.21</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.744999999999999</v>
+        <v>6.284</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.089</v>
+        <v>1.478</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.978</v>
+        <v>9.651</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.726</v>
+        <v>5.414</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.797</v>
+        <v>5.173</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.946</v>
+        <v>5.811</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>8.965999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.343</v>
+        <v>0.888</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>22.656</v>
+        <v>17.174</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.588</v>
+        <v>3.844</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.269</v>
+        <v>7.443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45165.52083333334</v>
+        <v>44815.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.277</v>
+        <v>9.326000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.719</v>
+        <v>7.021</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.115</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.748</v>
+        <v>20.853</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.069</v>
+        <v>17.606</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.469</v>
+        <v>7.284</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>10.66</v>
+        <v>27.35</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.191</v>
+        <v>11.336</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.819</v>
+        <v>5.199</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.941</v>
+        <v>7.885</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.093</v>
+        <v>8.913</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.984</v>
+        <v>8.851000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.602</v>
+        <v>2.955</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.009</v>
+        <v>7.329</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.44</v>
+        <v>10.658</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.232</v>
+        <v>6.104</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.135</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.095</v>
+        <v>0.448</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>21.077</v>
+        <v>106.795</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.189</v>
+        <v>20.557</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.857</v>
+        <v>6.751</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.088</v>
+        <v>14.029</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.259</v>
+        <v>7.219</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.248</v>
+        <v>1.363</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.3</v>
+        <v>13.702</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.526</v>
+        <v>6.092</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.288</v>
+        <v>5.604</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.599</v>
+        <v>6.465</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.174</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.223</v>
+        <v>0.492</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>10.706</v>
+        <v>25.604</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.168</v>
+        <v>4.168</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.98</v>
+        <v>8.441000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45165.52777777778</v>
+        <v>44815.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.1</v>
+        <v>8.449</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.34</v>
+        <v>6.347</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>15.32</v>
+        <v>18.787</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.78</v>
+        <v>15.773</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.35</v>
+        <v>6.61</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.05</v>
+        <v>26.547</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.92</v>
+        <v>10.262</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.22</v>
+        <v>4.697</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.85</v>
+        <v>7.067</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.29</v>
+        <v>7.924</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.48</v>
+        <v>7.975</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.8</v>
+        <v>2.557</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.75</v>
+        <v>6.619</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.74</v>
+        <v>9.637</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.41</v>
+        <v>5.53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.103</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.389</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.27</v>
+        <v>95.45999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.34</v>
+        <v>18.611</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.31</v>
+        <v>6.099</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.72</v>
+        <v>12.692</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.8</v>
+        <v>6.546</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.74</v>
+        <v>1.17</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>12.924</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.59</v>
+        <v>5.497</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.99</v>
+        <v>5.009</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.77</v>
+        <v>5.816</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.6</v>
+        <v>8.34</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>24.695</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>3.724</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>7.636</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44815.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4" t="n">
         <v>0.17</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>18.36</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>6.36</v>
+      <c r="X6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_484.xlsx
+++ b/DATA_goal/Junction_Flooding_484.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,11 +443,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
@@ -457,7 +457,7 @@
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44815.54861111111</v>
+        <v>45165.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>0.596</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.131</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>0.703</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>0.594</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.673</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>2.927</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>1.311</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>0.574</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>0.838</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>0.781</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.626</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>2.165</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>0.638</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>1.735</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>2.278</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>0.419</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>0.467</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>0.214</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>0.476</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>2.624</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>0.591</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44815.55555555555</v>
+        <v>45165.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.162000000000001</v>
+        <v>10.406</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.193</v>
+        <v>7.831</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.017</v>
+        <v>0.391</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.67</v>
+        <v>22.275</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.171</v>
+        <v>18.6</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.336</v>
+        <v>7.709</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>18.503</v>
+        <v>24.635</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.962</v>
+        <v>13.288</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.573</v>
+        <v>6.333</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.238</v>
+        <v>8.554</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.420999999999999</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.928</v>
+        <v>9.398</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.08</v>
+        <v>2.611</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.5</v>
+        <v>8.422000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.366</v>
+        <v>11.25</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.355</v>
+        <v>6.428</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.198</v>
+        <v>1.234</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.461</v>
+        <v>0.432</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>94.996</v>
+        <v>118.023</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>17.909</v>
+        <v>22.292</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.982</v>
+        <v>7.766</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.21</v>
+        <v>15.778</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.284</v>
+        <v>8.744999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.478</v>
+        <v>1.089</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.651</v>
+        <v>12.978</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.414</v>
+        <v>6.726</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.173</v>
+        <v>5.797</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.811</v>
+        <v>6.946</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.965999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.888</v>
+        <v>0.343</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>17.174</v>
+        <v>22.656</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.844</v>
+        <v>4.588</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.443</v>
+        <v>9.269</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44815.5625</v>
+        <v>45165.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.326000000000001</v>
+        <v>2.277</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.021</v>
+        <v>1.719</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.115</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20.853</v>
+        <v>4.748</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.606</v>
+        <v>4.069</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.284</v>
+        <v>1.469</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>27.35</v>
+        <v>10.66</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.336</v>
+        <v>3.191</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.199</v>
+        <v>1.819</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.885</v>
+        <v>1.941</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.913</v>
+        <v>2.093</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.851000000000001</v>
+        <v>1.984</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.955</v>
+        <v>0.602</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.329</v>
+        <v>2.009</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.658</v>
+        <v>2.44</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.104</v>
+        <v>1.232</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.135</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.448</v>
+        <v>0.095</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>106.795</v>
+        <v>21.077</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>20.557</v>
+        <v>5.189</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.751</v>
+        <v>1.857</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14.029</v>
+        <v>4.088</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.219</v>
+        <v>2.259</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.363</v>
+        <v>0.248</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.702</v>
+        <v>5.3</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.092</v>
+        <v>1.526</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.604</v>
+        <v>1.288</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.465</v>
+        <v>1.599</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.398999999999999</v>
+        <v>2.174</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.492</v>
+        <v>0.223</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>25.604</v>
+        <v>10.706</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.168</v>
+        <v>1.168</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.441000000000001</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44815.56944444445</v>
+        <v>45165.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.449</v>
+        <v>7.1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.347</v>
+        <v>5.34</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>18.787</v>
+        <v>15.32</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.773</v>
+        <v>12.78</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.61</v>
+        <v>5.35</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>26.547</v>
+        <v>20.05</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.262</v>
+        <v>8.92</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.697</v>
+        <v>4.22</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.067</v>
+        <v>5.85</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.924</v>
+        <v>6.29</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.975</v>
+        <v>6.48</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.557</v>
+        <v>1.8</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.619</v>
+        <v>5.75</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.637</v>
+        <v>7.74</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.53</v>
+        <v>4.41</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.103</v>
+        <v>0.66</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.389</v>
+        <v>0.2</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>95.45999999999999</v>
+        <v>78.27</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>18.611</v>
+        <v>15.34</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.099</v>
+        <v>5.31</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.692</v>
+        <v>10.72</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.546</v>
+        <v>5.8</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.17</v>
+        <v>0.74</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.924</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.497</v>
+        <v>4.59</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.009</v>
+        <v>3.99</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.816</v>
+        <v>4.77</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.34</v>
+        <v>6.6</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.335</v>
+        <v>0.17</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>24.695</v>
+        <v>18.36</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.724</v>
+        <v>3.11</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.636</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44815.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0</v>
+        <v>6.36</v>
       </c>
     </row>
   </sheetData>
